--- a/Relacoes/VendasSazonais/VendasSazonais.xlsx
+++ b/Relacoes/VendasSazonais/VendasSazonais.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Clara\Desktop\Consuelo\Relacoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Consuelo\Relacoes\VendasSazonais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB717A48-E973-4477-BAC0-5DCDC521A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D93FB-0062-4C7A-8020-782D299225BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="495" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VendasSazonais" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -641,12 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,6 +643,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -820,22 +812,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2489,7 +2481,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,19 +2494,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -19520,7 +19512,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19528,26 +19521,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402A88C2-D17A-461A-8C85-79CDD9D7F9B4}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
-      <selection activeCell="E1001" sqref="E1001"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -19756,17 +19756,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
         <v>483</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>368</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>351</v>
       </c>
     </row>
@@ -19907,19 +19907,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>309</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>388</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>472</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -20262,17 +20262,17 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5">
         <v>369</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="5">
         <v>389</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="6">
         <v>324</v>
       </c>
     </row>
@@ -20685,17 +20685,17 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="5">
         <v>365</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5">
         <v>390</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="6">
         <v>311</v>
       </c>
     </row>
@@ -21720,17 +21720,17 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="5">
         <v>365</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7">
+      <c r="C130" s="5"/>
+      <c r="D130" s="5">
         <v>344</v>
       </c>
-      <c r="E130" s="8">
+      <c r="E130" s="6">
         <v>322</v>
       </c>
     </row>
@@ -22092,19 +22092,19 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="5">
         <v>366</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="5">
         <v>388</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="5">
         <v>469</v>
       </c>
-      <c r="E152" s="8"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
@@ -23518,15 +23518,15 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="7">
+      <c r="A236" s="5">
         <v>235</v>
       </c>
-      <c r="B236" s="7">
+      <c r="B236" s="5">
         <v>349</v>
       </c>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="8">
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="6">
         <v>281</v>
       </c>
     </row>
@@ -24908,17 +24908,17 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="7">
+      <c r="A318" s="5">
         <v>317</v>
       </c>
-      <c r="B318" s="7"/>
-      <c r="C318" s="7">
+      <c r="B318" s="5"/>
+      <c r="C318" s="5">
         <v>341</v>
       </c>
-      <c r="D318" s="7">
+      <c r="D318" s="5">
         <v>310</v>
       </c>
-      <c r="E318" s="8">
+      <c r="E318" s="6">
         <v>317</v>
       </c>
     </row>
@@ -25943,19 +25943,19 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="7">
+      <c r="A379" s="5">
         <v>378</v>
       </c>
-      <c r="B379" s="7">
+      <c r="B379" s="5">
         <v>388</v>
       </c>
-      <c r="C379" s="7">
+      <c r="C379" s="5">
         <v>307</v>
       </c>
-      <c r="D379" s="7">
+      <c r="D379" s="5">
         <v>352</v>
       </c>
-      <c r="E379" s="8"/>
+      <c r="E379" s="6"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
@@ -26859,17 +26859,17 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="7">
+      <c r="A433" s="5">
         <v>432</v>
       </c>
-      <c r="B433" s="7">
+      <c r="B433" s="5">
         <v>387</v>
       </c>
-      <c r="C433" s="7">
+      <c r="C433" s="5">
         <v>302</v>
       </c>
-      <c r="D433" s="7"/>
-      <c r="E433" s="8">
+      <c r="D433" s="5"/>
+      <c r="E433" s="6">
         <v>449</v>
       </c>
     </row>
@@ -27112,19 +27112,19 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="7">
+      <c r="A448" s="5">
         <v>447</v>
       </c>
-      <c r="B448" s="7">
+      <c r="B448" s="5">
         <v>367</v>
       </c>
-      <c r="C448" s="7">
+      <c r="C448" s="5">
         <v>387</v>
       </c>
-      <c r="D448" s="7">
+      <c r="D448" s="5">
         <v>431</v>
       </c>
-      <c r="E448" s="8"/>
+      <c r="E448" s="6"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
@@ -27365,17 +27365,17 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="7">
+      <c r="A463" s="5">
         <v>462</v>
       </c>
-      <c r="B463" s="7"/>
-      <c r="C463" s="7">
+      <c r="B463" s="5"/>
+      <c r="C463" s="5">
         <v>391</v>
       </c>
-      <c r="D463" s="7">
+      <c r="D463" s="5">
         <v>425</v>
       </c>
-      <c r="E463" s="8">
+      <c r="E463" s="6">
         <v>279</v>
       </c>
     </row>
@@ -28706,17 +28706,17 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A542" s="7">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="7"/>
-      <c r="C542" s="7">
+      <c r="B542" s="5"/>
+      <c r="C542" s="5">
         <v>357</v>
       </c>
-      <c r="D542" s="7">
+      <c r="D542" s="5">
         <v>305</v>
       </c>
-      <c r="E542" s="8">
+      <c r="E542" s="6">
         <v>334</v>
       </c>
     </row>
@@ -29911,17 +29911,17 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" s="7">
+      <c r="A613" s="5">
         <v>612</v>
       </c>
-      <c r="B613" s="7"/>
-      <c r="C613" s="7">
+      <c r="B613" s="5"/>
+      <c r="C613" s="5">
         <v>359</v>
       </c>
-      <c r="D613" s="7">
+      <c r="D613" s="5">
         <v>414</v>
       </c>
-      <c r="E613" s="8">
+      <c r="E613" s="6">
         <v>399</v>
       </c>
     </row>
@@ -30317,17 +30317,17 @@
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A637" s="7">
+      <c r="A637" s="5">
         <v>636</v>
       </c>
-      <c r="B637" s="7">
+      <c r="B637" s="5">
         <v>289</v>
       </c>
-      <c r="C637" s="7"/>
-      <c r="D637" s="7">
+      <c r="C637" s="5"/>
+      <c r="D637" s="5">
         <v>417</v>
       </c>
-      <c r="E637" s="8">
+      <c r="E637" s="6">
         <v>417</v>
       </c>
     </row>
@@ -31590,17 +31590,17 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A712" s="7">
+      <c r="A712" s="5">
         <v>711</v>
       </c>
-      <c r="B712" s="7">
+      <c r="B712" s="5">
         <v>374</v>
       </c>
-      <c r="C712" s="7"/>
-      <c r="D712" s="7">
+      <c r="C712" s="5"/>
+      <c r="D712" s="5">
         <v>318</v>
       </c>
-      <c r="E712" s="8">
+      <c r="E712" s="6">
         <v>402</v>
       </c>
     </row>
@@ -31894,19 +31894,19 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A730" s="7">
+      <c r="A730" s="5">
         <v>729</v>
       </c>
-      <c r="B730" s="7">
+      <c r="B730" s="5">
         <v>322</v>
       </c>
-      <c r="C730" s="7">
+      <c r="C730" s="5">
         <v>382</v>
       </c>
-      <c r="D730" s="7">
+      <c r="D730" s="5">
         <v>391</v>
       </c>
-      <c r="E730" s="8"/>
+      <c r="E730" s="6"/>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="3">
@@ -33150,19 +33150,19 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A804" s="7">
+      <c r="A804" s="5">
         <v>803</v>
       </c>
-      <c r="B804" s="7">
+      <c r="B804" s="5">
         <v>398</v>
       </c>
-      <c r="C804" s="7">
+      <c r="C804" s="5">
         <v>339</v>
       </c>
-      <c r="D804" s="7">
+      <c r="D804" s="5">
         <v>319</v>
       </c>
-      <c r="E804" s="8"/>
+      <c r="E804" s="6"/>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="3">
@@ -33811,17 +33811,17 @@
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A843" s="7">
+      <c r="A843" s="5">
         <v>842</v>
       </c>
-      <c r="B843" s="7">
+      <c r="B843" s="5">
         <v>391</v>
       </c>
-      <c r="C843" s="7"/>
-      <c r="D843" s="7">
+      <c r="C843" s="5"/>
+      <c r="D843" s="5">
         <v>300</v>
       </c>
-      <c r="E843" s="8">
+      <c r="E843" s="6">
         <v>316</v>
       </c>
     </row>
@@ -36495,17 +36495,17 @@
       </c>
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1001" s="9">
+      <c r="A1001" s="7">
         <v>1000</v>
       </c>
-      <c r="B1001" s="9"/>
-      <c r="C1001" s="9">
+      <c r="B1001" s="7"/>
+      <c r="C1001" s="7">
         <v>269</v>
       </c>
-      <c r="D1001" s="9">
+      <c r="D1001" s="7">
         <v>466</v>
       </c>
-      <c r="E1001" s="10">
+      <c r="E1001" s="8">
         <v>331</v>
       </c>
     </row>

--- a/Relacoes/VendasSazonais/VendasSazonais.xlsx
+++ b/Relacoes/VendasSazonais/VendasSazonais.xlsx
@@ -8,30 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Consuelo\Relacoes\VendasSazonais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D93FB-0062-4C7A-8020-782D299225BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6EFE5B-C2BC-4AD2-BD4A-D05A2719C942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="495" windowWidth="19440" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VendasSazonais" sheetId="1" r:id="rId1"/>
     <sheet name="SemOutliers" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">VendasSazonais!$L$2:$O$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">VendasSazonais!$L$2:$O$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">VendasSazonais!$B$2:$B$1001</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">VendasSazonais!$C$2:$C$1001</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">VendasSazonais!$D$2:$D$1001</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">VendasSazonais!$E$2:$E$1001</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>id_item</t>
   </si>
@@ -46,6 +59,30 @@
   </si>
   <si>
     <t>inverno</t>
+  </si>
+  <si>
+    <t>med_primavera</t>
+  </si>
+  <si>
+    <t>med_verao</t>
+  </si>
+  <si>
+    <t>med_outono</t>
+  </si>
+  <si>
+    <t>med_inverno</t>
+  </si>
+  <si>
+    <t>soma_primaveira</t>
+  </si>
+  <si>
+    <t>soma_verao</t>
+  </si>
+  <si>
+    <t>soma_outono</t>
+  </si>
+  <si>
+    <t>soma_inverno</t>
   </si>
 </sst>
 </file>
@@ -619,7 +656,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,6 +686,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,6 +747,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5B80B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -709,27 +763,351 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0586-40AC-A180-D3F4EF211258}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0586-40AC-A180-D3F4EF211258}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F5B80B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0586-40AC-A180-D3F4EF211258}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>VendasSazonais!$L$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>380113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0586-40AC-A180-D3F4EF211258}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1264104495"/>
+        <c:axId val="1264099087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1264104495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264099087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1264099087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="390000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264104495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -812,22 +1190,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -946,6 +1324,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1501,6 +1919,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2020,15 +2941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238123</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2064,8 +2985,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4219574" y="176211"/>
-              <a:ext cx="6410325" cy="3624263"/>
+              <a:off x="4152900" y="742950"/>
+              <a:ext cx="4829173" cy="2905124"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2095,6 +3016,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>421668</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17123</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55223</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689CD7A5-7F9E-4287-9E99-6876FC0F3FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2103,15 +3060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2147,8 +3104,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3200400" y="104775"/>
-              <a:ext cx="6410325" cy="3624263"/>
+              <a:off x="4238625" y="781049"/>
+              <a:ext cx="4838700" cy="2824163"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2478,22 +3435,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="12" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2509,8 +3471,32 @@
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2526,8 +3512,40 @@
       <c r="E2" s="1">
         <v>313</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="12">
+        <f>AVERAGE(B2:B1001)</f>
+        <v>380.113</v>
+      </c>
+      <c r="H2" s="12">
+        <f>AVERAGE(C2:C1001)</f>
+        <v>367.52199999999999</v>
+      </c>
+      <c r="I2" s="12">
+        <f>AVERAGE(D2:D1001)</f>
+        <v>378.01600000000002</v>
+      </c>
+      <c r="J2" s="11">
+        <f>AVERAGE(E2:E1001)</f>
+        <v>368.33300000000003</v>
+      </c>
+      <c r="L2" s="14">
+        <f>SUM(B2:B1001)</f>
+        <v>380113</v>
+      </c>
+      <c r="M2" s="14">
+        <f>SUM(C2:C1001)</f>
+        <v>367522</v>
+      </c>
+      <c r="N2" s="14">
+        <f t="shared" ref="N2:O2" si="0">SUM(D2:D1001)</f>
+        <v>378016</v>
+      </c>
+      <c r="O2" s="14">
+        <f t="shared" si="0"/>
+        <v>368333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2544,7 +3562,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2561,7 +3579,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2578,7 +3596,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2595,7 +3613,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2612,7 +3630,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2629,7 +3647,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2646,7 +3664,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2663,7 +3681,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2680,7 +3698,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2697,7 +3715,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2714,7 +3732,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2731,7 +3749,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2748,7 +3766,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -19519,10 +20537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402A88C2-D17A-461A-8C85-79CDD9D7F9B4}">
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19532,9 +20550,13 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -19550,8 +20572,20 @@
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -19567,8 +20601,24 @@
       <c r="E2" s="1">
         <v>313</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="14">
+        <f>AVERAGE(B2:B1001)</f>
+        <v>379.92044310171201</v>
+      </c>
+      <c r="H2" s="14">
+        <f>AVERAGE(C2:C1001)</f>
+        <v>366.54527162977865</v>
+      </c>
+      <c r="I2" s="14">
+        <f>AVERAGE(D2:D1001)</f>
+        <v>377.67935871743487</v>
+      </c>
+      <c r="J2" s="13">
+        <f>AVERAGE(E2:E1001)</f>
+        <v>368.08048289738429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -19585,7 +20635,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -19602,7 +20652,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -19619,7 +20669,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -19636,7 +20686,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -19653,7 +20703,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -19670,7 +20720,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -19687,7 +20737,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -19704,7 +20754,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -19721,7 +20771,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -19738,7 +20788,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -19755,7 +20805,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -19770,7 +20820,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -19787,7 +20837,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
